--- a/outputs/R_OUT - Otolith microchemstry results with biodata.xlsx
+++ b/outputs/R_OUT - Otolith microchemstry results with biodata.xlsx
@@ -11870,18 +11870,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="AC79">
+        <v>84</v>
       </c>
       <c r="AD79">
         <v>17</v>
       </c>
-      <c r="AE79" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
+      <c r="AE79">
+        <v>5.29</v>
       </c>
       <c r="AF79">
         <v>0.8925197062952165</v>
@@ -12031,18 +12027,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="AC80">
+        <v>77</v>
       </c>
       <c r="AD80">
         <v>16</v>
       </c>
-      <c r="AE80" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
+      <c r="AE80">
+        <v>4.05</v>
       </c>
       <c r="AF80">
         <v>0.887120974825478</v>
@@ -12192,18 +12184,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="AC81">
+        <v>92</v>
       </c>
       <c r="AD81">
         <v>19</v>
       </c>
-      <c r="AE81" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
+      <c r="AE81">
+        <v>7.03</v>
       </c>
       <c r="AF81">
         <v>0.902800608202515</v>
@@ -12348,18 +12336,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="AC82">
+        <v>92</v>
       </c>
       <c r="AD82">
         <v>18</v>
       </c>
-      <c r="AE82" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
+      <c r="AE82">
+        <v>6.77</v>
       </c>
       <c r="AF82">
         <v>0.869411112024328</v>
@@ -12509,18 +12493,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="AC83">
+        <v>82</v>
       </c>
       <c r="AD83">
         <v>13</v>
       </c>
-      <c r="AE83" t="inlineStr">
-        <is>
-          <t>4.5199999999999996</t>
-        </is>
+      <c r="AE83">
+        <v>4.52</v>
       </c>
       <c r="AF83">
         <v>0.8197791674525906</v>
@@ -12670,18 +12650,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="AC84">
+        <v>81</v>
       </c>
       <c r="AD84">
         <v>12</v>
       </c>
-      <c r="AE84" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="AE84">
+        <v>4.42</v>
       </c>
       <c r="AF84">
         <v>0.831700979036243</v>
@@ -12821,18 +12797,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="AC85">
+        <v>60</v>
       </c>
       <c r="AD85">
         <v>10</v>
       </c>
-      <c r="AE85" t="inlineStr">
-        <is>
-          <t>2.0099999999999998</t>
-        </is>
+      <c r="AE85">
+        <v>2.01</v>
       </c>
       <c r="AF85">
         <v>0.9305555555555554</v>
@@ -12972,18 +12944,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="AC86">
+        <v>86</v>
       </c>
       <c r="AD86">
         <v>12</v>
       </c>
-      <c r="AE86" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
+      <c r="AE86">
+        <v>5.17</v>
       </c>
       <c r="AF86">
         <v>0.81282151257122</v>
@@ -13133,18 +13101,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="AC87">
+        <v>68</v>
       </c>
       <c r="AD87">
         <v>12</v>
       </c>
-      <c r="AE87" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
+      <c r="AE87">
+        <v>2.7</v>
       </c>
       <c r="AF87">
         <v>0.8586912273559942</v>
@@ -13284,18 +13248,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="AC88">
+        <v>91</v>
       </c>
       <c r="AD88">
         <v>20</v>
       </c>
-      <c r="AE88" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
+      <c r="AE88">
+        <v>7.39</v>
       </c>
       <c r="AF88">
         <v>0.9806640648326435</v>
@@ -13440,18 +13400,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="AC89">
+        <v>88</v>
       </c>
       <c r="AD89">
         <v>19</v>
       </c>
-      <c r="AE89" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
+      <c r="AE89">
+        <v>6.39</v>
       </c>
       <c r="AF89">
         <v>0.9376760894064613</v>
@@ -13591,18 +13547,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="AC90">
+        <v>82</v>
       </c>
       <c r="AD90">
         <v>16</v>
       </c>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t>4.8499999999999996</t>
-        </is>
+      <c r="AE90">
+        <v>4.85</v>
       </c>
       <c r="AF90">
         <v>0.8796303013595276</v>
@@ -13742,18 +13694,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="AC91">
+        <v>90</v>
       </c>
       <c r="AD91">
         <v>20</v>
       </c>
-      <c r="AE91" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
+      <c r="AE91">
+        <v>6.85</v>
       </c>
       <c r="AF91">
         <v>0.9396433470507545</v>
@@ -13903,18 +13851,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="AC92">
+        <v>94</v>
       </c>
       <c r="AD92">
         <v>20</v>
       </c>
-      <c r="AE92" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
+      <c r="AE92">
+        <v>7.64</v>
       </c>
       <c r="AF92">
         <v>0.9198347187039481</v>
@@ -14064,18 +14008,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="AC93">
+        <v>86</v>
       </c>
       <c r="AD93">
         <v>16</v>
       </c>
-      <c r="AE93" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+      <c r="AE93">
+        <v>5.7</v>
       </c>
       <c r="AF93">
         <v>0.8961475090243626</v>
@@ -14225,18 +14165,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="AC94">
+        <v>84</v>
       </c>
       <c r="AD94">
         <v>16</v>
       </c>
-      <c r="AE94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="AE94">
+        <v>5</v>
       </c>
       <c r="AF94">
         <v>0.8435914048158946</v>
@@ -14381,18 +14317,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="AC95">
+        <v>71</v>
       </c>
       <c r="AD95">
         <v>15</v>
       </c>
-      <c r="AE95" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
+      <c r="AE95">
+        <v>3.57</v>
       </c>
       <c r="AF95">
         <v>0.9974546744861151</v>
@@ -14532,18 +14464,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="AC96">
+        <v>82</v>
       </c>
       <c r="AD96">
         <v>17</v>
       </c>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t>5.0599999999999996</t>
-        </is>
+      <c r="AE96">
+        <v>5.06</v>
       </c>
       <c r="AF96">
         <v>0.9177173865730327</v>
@@ -14683,18 +14611,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="AC97">
+        <v>70</v>
       </c>
       <c r="AD97">
         <v>17</v>
       </c>
-      <c r="AE97" t="inlineStr">
-        <is>
-          <t>4.6399999999999997</t>
-        </is>
+      <c r="AE97">
+        <v>4.64</v>
       </c>
       <c r="AF97">
         <v>1.352769679300291</v>
@@ -14834,18 +14758,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="AC98">
+        <v>80</v>
       </c>
       <c r="AD98">
         <v>17</v>
       </c>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
+      <c r="AE98">
+        <v>5.18</v>
       </c>
       <c r="AF98">
         <v>1.01171875</v>
@@ -14985,18 +14905,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="AC99">
+        <v>88</v>
       </c>
       <c r="AD99">
         <v>15</v>
       </c>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
+      <c r="AE99">
+        <v>6.25</v>
       </c>
       <c r="AF99">
         <v>0.9171323253193088</v>
@@ -15136,18 +15052,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="AC100">
+        <v>92</v>
       </c>
       <c r="AD100">
         <v>19</v>
       </c>
-      <c r="AE100" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
+      <c r="AE100">
+        <v>7.52</v>
       </c>
       <c r="AF100">
         <v>0.9657269663844825</v>
@@ -15292,18 +15204,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="AC101">
+        <v>99</v>
       </c>
       <c r="AD101">
         <v>21</v>
       </c>
-      <c r="AE101" t="inlineStr">
-        <is>
-          <t>9.5399999999999991</t>
-        </is>
+      <c r="AE101">
+        <v>9.539999999999999</v>
       </c>
       <c r="AF101">
         <v>0.9832020851304597</v>
@@ -15448,18 +15356,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="AC102">
+        <v>95</v>
       </c>
       <c r="AD102">
         <v>19</v>
       </c>
-      <c r="AE102" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
+      <c r="AE102">
+        <v>7.77</v>
       </c>
       <c r="AF102">
         <v>0.9062545560577343</v>
@@ -15604,18 +15508,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="AC103">
+        <v>87</v>
       </c>
       <c r="AD103">
         <v>18</v>
       </c>
-      <c r="AE103" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
+      <c r="AE103">
+        <v>5.99</v>
       </c>
       <c r="AF103">
         <v>0.9096389841807858</v>
@@ -15760,18 +15660,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="AC104">
+        <v>79</v>
       </c>
       <c r="AD104">
         <v>16</v>
       </c>
-      <c r="AE104" t="inlineStr">
-        <is>
-          <t>4.7699999999999996</t>
-        </is>
+      <c r="AE104">
+        <v>4.77</v>
       </c>
       <c r="AF104">
         <v>0.967469104878113</v>
@@ -15916,18 +15812,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="AC105">
+        <v>98</v>
       </c>
       <c r="AD105">
         <v>21</v>
       </c>
-      <c r="AE105" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
+      <c r="AE105">
+        <v>9.33</v>
       </c>
       <c r="AF105">
         <v>0.9912961436136304</v>
@@ -16072,18 +15964,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="AC106">
+        <v>100</v>
       </c>
       <c r="AD106">
         <v>22</v>
       </c>
-      <c r="AE106" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
+      <c r="AE106">
+        <v>10.07</v>
       </c>
       <c r="AF106">
         <v>1.007</v>
@@ -16228,18 +16116,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="AC107">
+        <v>80</v>
       </c>
       <c r="AD107">
         <v>18</v>
       </c>
-      <c r="AE107" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
+      <c r="AE107">
+        <v>5.49</v>
       </c>
       <c r="AF107">
         <v>1.072265625</v>
@@ -16384,18 +16268,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="AC108">
+        <v>85</v>
       </c>
       <c r="AD108">
         <v>17</v>
       </c>
-      <c r="AE108" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
+      <c r="AE108">
+        <v>5.56</v>
       </c>
       <c r="AF108">
         <v>0.9053531447180948</v>
@@ -16535,18 +16415,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC109">
+        <v>110</v>
       </c>
       <c r="AD109">
         <v>23</v>
       </c>
-      <c r="AE109" t="inlineStr">
-        <is>
-          <t>13.31</t>
-        </is>
+      <c r="AE109">
+        <v>13.31</v>
       </c>
       <c r="AF109">
         <v>1</v>
@@ -16691,18 +16567,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC110" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
+      <c r="AC110">
+        <v>106</v>
       </c>
       <c r="AD110">
         <v>22</v>
       </c>
-      <c r="AE110" t="inlineStr">
-        <is>
-          <t>10.96</t>
-        </is>
+      <c r="AE110">
+        <v>10.96</v>
       </c>
       <c r="AF110">
         <v>0.9202227342034028</v>
@@ -16847,18 +16719,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC111">
+        <v>110</v>
       </c>
       <c r="AD111">
         <v>22</v>
       </c>
-      <c r="AE111" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
+      <c r="AE111">
+        <v>12.46</v>
       </c>
       <c r="AF111">
         <v>0.9361382419233659</v>
@@ -16998,18 +16866,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
+      <c r="AC112">
+        <v>127</v>
       </c>
       <c r="AD112">
         <v>24</v>
       </c>
-      <c r="AE112" t="inlineStr">
-        <is>
-          <t>12.09</t>
-        </is>
+      <c r="AE112">
+        <v>12.09</v>
       </c>
       <c r="AF112">
         <v>0.5902216528842507</v>
@@ -17154,18 +17018,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="AC113">
+        <v>112</v>
       </c>
       <c r="AD113">
         <v>23</v>
       </c>
-      <c r="AE113" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="AE113">
+        <v>13</v>
       </c>
       <c r="AF113">
         <v>0.9253143221574345</v>
@@ -17310,18 +17170,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="AC114">
+        <v>85</v>
       </c>
       <c r="AD114">
         <v>15</v>
       </c>
-      <c r="AE114" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
+      <c r="AE114">
+        <v>5.14</v>
       </c>
       <c r="AF114">
         <v>0.8369631589660086</v>
@@ -17466,18 +17322,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
+      <c r="AC115">
+        <v>106</v>
       </c>
       <c r="AD115">
         <v>23</v>
       </c>
-      <c r="AE115" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
+      <c r="AE115">
+        <v>11.62</v>
       </c>
       <c r="AF115">
         <v>0.9756376068835346</v>
@@ -17668,9 +17520,52 @@
           <t>juvenile</t>
         </is>
       </c>
+      <c r="U117" s="2">
+        <v>45622</v>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Microtrolling</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>26Nov24-MCT-Village Reef-1</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>chinook</t>
+        </is>
+      </c>
       <c r="AG117" t="inlineStr">
         <is>
           <t>NA-NA</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AU117" t="inlineStr">
+        <is>
+          <t>Unknown Unknown</t>
+        </is>
+      </c>
+      <c r="AV117" t="inlineStr">
+        <is>
+          <t>Unknown Unknown</t>
+        </is>
+      </c>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>stray</t>
         </is>
       </c>
     </row>
@@ -17755,18 +17650,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC118" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="AC118">
+        <v>66</v>
       </c>
       <c r="AD118">
         <v>12</v>
       </c>
-      <c r="AE118" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
+      <c r="AE118">
+        <v>2.31</v>
       </c>
       <c r="AF118">
         <v>0.8034894398530762</v>
@@ -17896,18 +17787,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC119" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="AC119">
+        <v>73</v>
       </c>
       <c r="AD119">
         <v>15</v>
       </c>
-      <c r="AE119" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
+      <c r="AE119">
+        <v>3.85</v>
       </c>
       <c r="AF119">
         <v>0.989673973116856</v>
@@ -18037,18 +17924,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC120" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="AC120">
+        <v>70</v>
       </c>
       <c r="AD120">
         <v>12</v>
       </c>
-      <c r="AE120" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
+      <c r="AE120">
+        <v>3.23</v>
       </c>
       <c r="AF120">
         <v>0.9416909620991254</v>
@@ -18183,18 +18066,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC121" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="AC121">
+        <v>79</v>
       </c>
       <c r="AD121">
         <v>16</v>
       </c>
-      <c r="AE121" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="AE121">
+        <v>4.49</v>
       </c>
       <c r="AF121">
         <v>0.9106784655980561</v>
@@ -18324,18 +18203,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC122" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="AC122">
+        <v>82</v>
       </c>
       <c r="AD122">
         <v>15</v>
       </c>
-      <c r="AE122" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="AE122">
+        <v>4.55</v>
       </c>
       <c r="AF122">
         <v>0.8252201796259485</v>
@@ -18470,18 +18345,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC123" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="AC123">
+        <v>93</v>
       </c>
       <c r="AD123">
         <v>19</v>
       </c>
-      <c r="AE123" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
+      <c r="AE123">
+        <v>7.51</v>
       </c>
       <c r="AF123">
         <v>0.9336650268475315</v>
@@ -18616,18 +18487,14 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AC124" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="AC124">
+        <v>77</v>
       </c>
       <c r="AD124">
         <v>14</v>
       </c>
-      <c r="AE124" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
+      <c r="AE124">
+        <v>3.92</v>
       </c>
       <c r="AF124">
         <v>0.8586454867446603</v>
